--- a/formatos/formato-nomina.xlsx
+++ b/formatos/formato-nomina.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CAD55F-50D7-44A7-AE9E-B2A47C3DDB3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33256822-270F-49FB-94D6-E6CAE2B92A95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nominas" sheetId="1" r:id="rId1"/>
@@ -85,14 +85,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -165,8 +157,16 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,13 +175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,633 +247,633 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="483">
     <cellStyle name="Euro" xfId="7" xr:uid="{0822EC24-79F2-449D-9E22-B9263B4A578E}"/>
@@ -1644,57 +1638,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
     </row>

--- a/formatos/formato-nomina.xlsx
+++ b/formatos/formato-nomina.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33256822-270F-49FB-94D6-E6CAE2B92A95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6006073-0283-4E28-B242-9258EBE96B76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nominas" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Cargo</t>
-  </si>
-  <si>
     <t>Proceso</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
   </si>
   <si>
     <t>Prestaciones</t>
@@ -53,6 +47,12 @@
   </si>
   <si>
     <t>Tipo de contrato</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Transporte</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1658,37 +1660,37 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="K1" s="9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/formatos/formato-nomina.xlsx
+++ b/formatos/formato-nomina.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6006073-0283-4E28-B242-9258EBE96B76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF6C7DC-2A97-4C4A-8741-CE141AA33337}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>Salario</t>
   </si>
   <si>
-    <t>Bonificaciones</t>
-  </si>
-  <si>
     <t>Horas</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>Transporte</t>
+  </si>
+  <si>
+    <t>Otros Ingresos</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1660,7 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1669,25 +1669,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>1</v>
